--- a/Bin/Server/DataConfig/Excel/ChatGroup.xlsx
+++ b/Bin/Server/DataConfig/Excel/ChatGroup.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Record" sheetId="2" r:id="rId2"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
+    <sheet name="DataTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -108,8 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,6 +120,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -349,13 +354,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -689,33 +697,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="59.375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" customWidth="1"/>
-    <col min="17" max="17" width="12.1640625" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
@@ -843,9 +851,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -856,19 +865,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="9.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="4" customWidth="1"/>
     <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -1048,11 +1057,12 @@
       <c r="B20" s="9"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 B2 A3 B3 C3 A12:B13">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 B2 A3 B3 C3 A12:B13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 E3 F3 G3 A4 B4 A5 B5 A6 B6 B7 B17 A14:B16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 E3 F3 G3 A4 B4 A5 B5 A6 B6 B7 B17 A14:B16" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Bin/Server/DataConfig/Excel/ChatGroup.xlsx
+++ b/Bin/Server/DataConfig/Excel/ChatGroup.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ARK\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataNode" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,14 +331,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -698,11 +692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,23 +704,18 @@
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="22" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1"/>
-    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="13" max="13" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -736,15 +725,9 @@
       <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+    </row>
+    <row r="2" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -753,15 +736,9 @@
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+    </row>
+    <row r="3" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="7" t="b">
@@ -770,15 +747,9 @@
       <c r="C3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+    </row>
+    <row r="4" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="7" t="b">
@@ -787,15 +758,9 @@
       <c r="C4" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="7" t="b">
@@ -804,15 +769,9 @@
       <c r="C5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+    </row>
+    <row r="6" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="b">
@@ -821,15 +780,9 @@
       <c r="C6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
+    </row>
+    <row r="7" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="12" t="b">
@@ -839,14 +792,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -854,7 +807,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:J7" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 B7:C7" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -868,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
